--- a/biology/Zoologie/Euphlyctis_kalasgramensis/Euphlyctis_kalasgramensis.xlsx
+++ b/biology/Zoologie/Euphlyctis_kalasgramensis/Euphlyctis_kalasgramensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Euphlyctis kalasgramensis est une espèce d'amphibiens de la famille des Dicroglossidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euphlyctis kalasgramensis est une espèce d'amphibiens de la famille des Dicroglossidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Bangladesh. Sa présence est incertaine en Inde[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Bangladesh. Sa présence est incertaine en Inde.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le spécimen adulte mâle observé lors de la description originale mesure 37,88 mm de longueur standard et les 14 spécimens adultes femelles observés lors de la description originale mesurent entre 30,44 mm et 36,10 mm de longueur standard[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le spécimen adulte mâle observé lors de la description originale mesure 37,88 mm de longueur standard et les 14 spécimens adultes femelles observés lors de la description originale mesurent entre 30,44 mm et 36,10 mm de longueur standard.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom d'espèce, composé de kalasgram et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donné en référence au lieu de sa découverte, Kalasgram[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom d'espèce, composé de kalasgram et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donné en référence au lieu de sa découverte, Kalasgram.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Howlader, Nair, Gopalan &amp; Merilä, 2015 : A New Species of Euphlyctis (Anura: Dicroglossidae) from Barisal, Bangladesh. PloS one, vol. 10, no 2, p. e0116666-e0116666 (texte intégral).</t>
         </is>
